--- a/biology/Botanique/Helen_Jean_Brown/Helen_Jean_Brown.xlsx
+++ b/biology/Botanique/Helen_Jean_Brown/Helen_Jean_Brown.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helen Jean Brown (épouse Bromley) est une botaniste américaine, née le 9 août 1903 à Beaumont au Texas et morte le 16 juin 1982 à Stanford dans le Connecticut.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle obtient son Bachelor of Arts, son Master of Arts et son Ph. D. en botanique à l’université de l'État de l'Ohio. Elle conduit sa thèse sous la direction du professeur Edgar Nelson Transeau (1875-1960) auprès de qui elle étudie les algues vertes, principalement les Desmidiales des plaines côtières des États-Unis d'Amérique et les algues de la famille des Vaucheriaceae.
 Après son mariage, le 14 mars 1935, avec l’entomologiste Stanley Willard Bromley (1899-1954), elle enseigne au College of St. Mary of the Springs (aujourd’hui Ohio Dominican University) puis est instructrice en botanique à l’université d’État de l’Ohio. En 1935, elle s’installe à Stamford où l’université du Connecticut ouvre une annexe. Elle y enseigne jusqu’à son départ à la retraite en 1970.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) [PDF] Necrology, The Ohio Journal of Science, 83 (5) (December, 1983) : 276.</t>
         </is>
